--- a/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
+++ b/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="启动A" sheetId="4" r:id="rId1"/>
+    <sheet name="车辆管理B" sheetId="5" r:id="rId2"/>
+    <sheet name="账户与设置" sheetId="2" r:id="rId3"/>
+    <sheet name="消息分享" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>测试项</t>
   </si>
@@ -128,12 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. 进入消息盒子页面
 2. 点击任意消息，进入消息详情页
 3. 点击右上角分享按钮，选择“微博”，跳转至微博
@@ -153,6 +149,85 @@
 2. 消息存在pic时显示该pic预览，图片分辨率、尺寸显示适中；不存在pic时，不显示
 3. 消息内容显示完整，无错字，显示不全等问题
 4. 消息中不显示url链接内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>应用启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功启动
+2. 首页数据【新增、高发、车辆信息、消息】加载正常
+3. 账户状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击手机桌面微车icon
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)</t>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，车辆添加成功，跳转至“车辆违章列表”页面，页面list处于加载状态
+3. 加载完成后
+  a. 如果车辆存在违章则显示违章；
+  b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
+  c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 进入应用首页，点击任意已添加车辆区域的车型图片
+2. 修改车辆信息【车型图片、车辆信息】
+3. 点击“保存”按钮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 进入应用首页，点击“添加车辆”入口
+2. 选择查询城市并输入必填车辆信息
+3. 点击“保存”按钮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面返回应用首页
+2. 查看该车辆已被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 进入应用首页，点击任意已添加车辆区域的车型图片
+2. 点击页面右上角“删除”按钮
+3. 点击“确定”按钮
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,19 +296,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -243,9 +330,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -256,13 +340,127 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -577,185 +775,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="132">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="132">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="99">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="99">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="115.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="66">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="66">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="66">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="66">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -770,10 +1267,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -787,21 +1284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
+++ b/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="启动A" sheetId="4" r:id="rId1"/>
-    <sheet name="车辆管理B" sheetId="5" r:id="rId2"/>
-    <sheet name="账户与设置" sheetId="2" r:id="rId3"/>
-    <sheet name="消息分享" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="首页A" sheetId="4" r:id="rId1"/>
+    <sheet name="附近B" sheetId="6" r:id="rId2"/>
+    <sheet name="车辆管理C" sheetId="5" r:id="rId3"/>
+    <sheet name="账户与设置DE" sheetId="2" r:id="rId4"/>
+    <sheet name="消息分享" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>测试项</t>
   </si>
@@ -36,9 +37,6 @@
   </si>
   <si>
     <t>测试结果</t>
-  </si>
-  <si>
-    <t>消息分享功能</t>
   </si>
   <si>
     <t>分享至微信朋友</t>
@@ -162,22 +160,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 应用可成功启动
-2. 首页数据【新增、高发、车辆信息、消息】加载正常
-3. 账户状态正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 点击手机桌面微车icon
 2. 查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆管理B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +212,294 @@
 2. 点击页面右上角“删除”按钮
 3. 点击“确定”按钮
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，页面返回“账户与设置”
+3. 页面展示为已登陆状态，在“账户”分类下显示：
+  a. “销分提醒服务”入口
+  如果该账户已设置“销分提醒时间”，则在入口右侧显示该时间。否则显示默认提示文字“选择驾驶证发证时间”；
+  b. “修改密码”入口；
+  c. “退出登陆”入口
+  入口右侧显示该账户11位手机号，如：“18501255729”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“账户登陆”
+3. 输入已注册手机号码及密码，点击“登录”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“退出登录”
+3. 点击退出登录“提示”对话框“确定”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“账户登陆”
+3. 点击“注册”按钮
+4. 输入未注册手机号码及密码，点击“快速注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，页面返回“账户与设置”
+3. 应用弹出“注册成功”对话框；点击“知道啦”按钮，对话框消失
+4. 页面展示为已登陆状态，在“账户”分类下显示：
+  a. “销分提醒服务”入口
+  入口右侧显示默认提示文字“选择驾驶证发证时间”；
+  b. “修改密码”入口；
+  c. “退出登陆”入口
+  入口右侧显示该账户11位手机号，如：“18501255729”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“修改密码”
+3. 输入原密码及新密码，点击“修改密码”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“账户登陆”
+3. 点击“忘记密码”按钮
+4. 输入已注册手机号码，点击“发送密码”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，页面保持在“账户登录”页面
+3. 弹出Toast提示，“密码将以短信形式发送到您的手机上~”
+4. 测试手机号可成功收取密码短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他-切换城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启定位服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击“切换城市”
+3. 选择任意城市，如：“上海”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面返回“账户与设置”页面
+2. “切换城市”入口右侧显示刚刚切换后的城市名称
+3. 返回首页后，新增、高发排行入口数据更新为该城市数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他-消息盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+存在未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 查看“消息盒子”入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ”消息盒子“入口右侧显示红色未读消息数量
+2. 进入查看任意消息后，未读数量随之减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他-意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击＂意见反馈＂入口
+3. 输入内容及联系方式
+4. 点击右上角"提交"按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，弹出Toast提示”感谢您的反馈“
+3. 页面返回“账户与设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他-给个评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“账户与设置”入口
+2. 点击＂给个评价＂入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面跳转至safari，随即进入AppStore应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>1. 应用可成功启动
+2. 首页数据加载正常
+  a. 未读消息
+  b. 新增入口数量
+  c. 高发排行入口
+  d. 已添加车辆信息
+3. 账户状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击首页刷新按钮
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认POI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换POI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 进入应用首页，点击“附近”入口
+2. 查看
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 默认显示为”摄像头“
+2. 地图中显示定位周边”摄像头“POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面显示butterfly loading动画
+2. loading结束后，地图中显示定位周边”停车场“POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“附近”入口
+2. 点击底部menu，选择任意POI类型，如”停车场“
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POI详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“附近”入口
+2. 点击地图中任意POI
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该POI详情页
+2. 页面显示该POI信息及地图坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POI导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“附近”入口
+2. 点击地图中任意POI
+3. 点击页面右上角”导航“按钮
+4. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面跳转至系统默认Map应用
+2. 显示路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户与设置D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息分享功能E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +546,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +559,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,13 +589,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,16 +654,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,11 +669,299 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -775,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -793,78 +1390,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:7" ht="33">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="115.5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -872,16 +1479,26 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="2">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -899,10 +1516,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5">
+      <c r="A2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="49.5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="H9:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -917,86 +1718,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="132">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="99">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="99">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5" s="3"/>
@@ -1004,7 +1805,7 @@
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
@@ -1012,7 +1813,7 @@
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
@@ -1037,10 +1838,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1056,28 +1857,381 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="148.5">
+      <c r="A2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="132">
+      <c r="A3" s="15"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="148.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="148.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="66">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="99">
+      <c r="A12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="115.5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="115.5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="66">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="66">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D11 D18:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1092,131 +2246,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="99">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="66">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="66">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="3"/>
@@ -1225,7 +2275,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -1234,7 +2284,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -1255,27 +2305,20 @@
       <c r="G11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="1">
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="G1 G8:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576 G1">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1284,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
+++ b/Buding_Primary_TestCases/布丁微车v2.4.1测试用例(一级).xlsx
@@ -4,22 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="631" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="首页A" sheetId="4" r:id="rId1"/>
-    <sheet name="附近B" sheetId="6" r:id="rId2"/>
-    <sheet name="车辆管理C" sheetId="5" r:id="rId3"/>
-    <sheet name="账户与设置DE" sheetId="2" r:id="rId4"/>
-    <sheet name="消息分享" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="首页M" sheetId="4" r:id="rId1"/>
+    <sheet name="附近F" sheetId="6" r:id="rId2"/>
+    <sheet name="车辆管理CM" sheetId="5" r:id="rId3"/>
+    <sheet name="车辆违章列表CVL" sheetId="9" r:id="rId4"/>
+    <sheet name="账户与设置AS" sheetId="2" r:id="rId5"/>
+    <sheet name="新增检查点NC" sheetId="1" r:id="rId6"/>
+    <sheet name="高发违章周排行HC" sheetId="3" r:id="rId7"/>
+    <sheet name="消息盒子MB" sheetId="10" r:id="rId8"/>
+    <sheet name="行车记录仪TR" sheetId="7" r:id="rId9"/>
+    <sheet name="其他O" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="214">
   <si>
     <t>测试项</t>
   </si>
@@ -57,22 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 进入消息盒子页面
-2. 点击任意消息，进入消息详情页
-3. 点击右上角分享按钮，选择“发送给朋友”，页面跳转至微信
-4. 选择联系人后，点击分享，查看
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入消息盒子页面
-2. 点击任意消息，进入消息详情页
-3. 点击右上角分享按钮，选择“发送到朋友圈”，页面跳转至微信
-4. 点击分享，查看
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
@@ -89,65 +78,6 @@
   </si>
   <si>
     <t>005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 可成功分享至朋友圈
-2. 消息存在pic时显示该pic预览；
-不存在pic是显示默认微车图片
-3. 用户点击该消息，无论command url存在与否，点击消息均无跳转
-4. 消息内容显示完整，无错字，显示不全等问题
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 可成功分享至朋友圈
-2. 消息存在pic时显示该pic预览；
-不存在pic是显示默认微车图片
-3. 用户点击该消息，跳转至微车官网
-消息share url为假时，无论command url存在与否，点击消息均无跳转
-4. 消息内容显示完整，无错字，显示不全等问题
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 可成功分享消息至朋友
-2. 消息存在pic时显示该pic预览；不存在pic时，显示默认微车图片
-3. 消息内容显示完整，无错字，显示不全等问题
-4. 用户点击该消息，跳转至指定url
-5. 跳转至url指定页面后，页面显示正常
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 可成功分享消息至朋友
-2. 消息存在pic时显示该pic预览；不存在pic是显示默认微车图片
-3. 消息内容显示完整，无错字，显示不全等问题
-4. 用户点击该消息，跳转至微车官网
-5. 跳转至url指定页面后，页面显示正常
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入消息盒子页面
-2. 点击任意消息，进入消息详情页
-3. 点击右上角分享按钮，选择“微博”，跳转至微博
-4.点击分享，查看
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 可成功分享消息至新浪微博
-2. 消息存在pic时显示该pic预览，图片分辨率、尺寸显示适中；不存在pic时，不显示
-3. 消息内容显示完整，无错字，显示不全等问题
-4. 消息中显示url链接内容，点击后跳转至url指定页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 可成功分享消息至新浪微博
-2. 消息存在pic时显示该pic预览，图片分辨率、尺寸显示适中；不存在pic时，不显示
-3. 消息内容显示完整，无错字，显示不全等问题
-4. 消息中不显示url链接内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>003</t>
@@ -186,32 +116,6 @@
   a. 如果车辆存在违章则显示违章；
   b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
   c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入应用首页，点击任意已添加车辆区域的车型图片
-2. 修改车辆信息【车型图片、车辆信息】
-3. 点击“保存”按钮
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入应用首页，点击“添加车辆”入口
-2. 选择查询城市并输入必填车辆信息
-3. 点击“保存”按钮
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 页面返回应用首页
-2. 查看该车辆已被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入应用首页，点击任意已添加车辆区域的车型图片
-2. 点击页面右上角“删除”按钮
-3. 点击“确定”按钮
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,20 +294,6 @@
     <t>009</t>
   </si>
   <si>
-    <t>1. 应用可成功启动
-2. 首页数据加载正常
-  a. 未读消息
-  b. 新增入口数量
-  c. 高发排行入口
-  d. 已添加车辆信息
-3. 账户状态正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附近B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试设备已联网(不关心网络环境)
 已开启定位服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,22 +317,6 @@
   </si>
   <si>
     <t>切换POI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 进入应用首页，点击“附近”入口
-2. 查看
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 默认显示为”摄像头“
-2. 地图中显示定位周边”摄像头“POI数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 页面显示butterfly loading动画
-2. loading结束后，地图中显示定位周边”停车场“POI数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,11 +333,6 @@
     <t>1. 进入应用首页，点击“附近”入口
 2. 点击地图中任意POI
 3. 查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 页面进入该POI详情页
-2. 页面显示该POI信息及地图坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,20 +351,819 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 页面跳转至系统默认Map应用
-2. 显示路径规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户与设置D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息分享功能E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆管理C</t>
+    <t>V2.4.1新增功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 下拉刷新列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部标记为已读</t>
+  </si>
+  <si>
+    <t>全部标记为已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 点击任意违章信息
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章未读标记已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录类型filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 点击任意未读违章信息
+3. 点击返回按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 默认显示为”摄像头“；
+地图中显示定位周边”摄像头“POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 页面显示butterfly loading动画
+3. loading结束后，地图中显示定位周边”停车场“POI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 页面进入该POI详情页
+3. 页面显示该POI信息及地图坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“附近”页面
+2. 页面进入该POI详情页
+3. 页面跳转至系统默认Map应用
+4. 显示路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“添加车辆”页面
+2. 页面显示已填写信息
+3. loading结束后，车辆添加成功，跳转至“车辆违章列表”页面，页面list处于加载状态。加载完成后：
+  a. 如果车辆存在违章则显示违章；
+  b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
+  c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“编辑车辆”页面，页面显示该车辆已填信息
+2. 页面显示修改后的车辆信息
+3. loading结束后，车辆添加成功，跳转至“车辆违章列表”页面，页面list处于加载状态。加载完成后：
+  a. 如果车辆存在违章则显示违章；
+  b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
+  c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“编辑车辆”页面
+2. 弹出删除二次确认对话框
+3. 页面返回应用首页，查看该车辆已被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面
+2. 显示butterfly loading动画，loading结束后，页面显示查询结果：
+  a. 如果车辆存在违章则显示违章；
+  b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
+  c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 进入该违章详情页
+3. 页面显示该违章详细信息，并在map中标记违章地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 点击右上角“全部标为已读”按钮
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 点击右上角“记录类型”filter按钮
+3. 选择任意类型“未处理”，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 弹出filter菜单
+3. 弹出butterfly loading动画，loading结束后，页面显示符合该类型的违章数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 点击“统计”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 页面进入统计页面；显示该车辆全部扣分、罚款统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+查询城市为手动输入验证码城市，如“惠州”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆
+2. 下拉刷新列表
+3. 输入正确验证码，点击“确定”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 列表处于刷新状态，且在list顶部显示输入验证码区域
+3. 继续该车辆的查询操作，列表显示为刷新中状态，待查询结束后，页面显示查询结果：
+  a. 如果车辆存在违章则显示违章；
+  b. 如果车辆不存在违章，且车辆信息正确，则显示“恭喜您，暂时没有违章”提示；
+  c. 如果车辆信息错误，则显示“车辆信息错误”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆违章列表CVL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户与设置AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增检查点NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“附近”入口
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页
+2. 查看“新增检查点”入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 首页处于刷新状态
+2. 刷新结束后，入口显示当前新增与原有未读新增检查点的数量总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增检查点详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点未读标记已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看范围filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“新增检查点”入口
+2. 点击右上角“查看范围”filter按钮
+3. 选择任意类型“附近”，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启定位服务
+当前定位城市为北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 弹出filter菜单
+3. 弹出butterfly loading动画，loading结束后，页面显示符合该类型的检查点数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“新增检查点”入口
+2. 点击右上角“全部标为已读”按钮
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 弹出二次确认对话框
+3. 列表中全部未读检查点标记为已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 弹出二次确认对话框
+3. 列表中全部未读违章信息标记为已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“新增检查点”入口
+2. 点击任意未读检查点信息
+3. 点击返回按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 进入该检查点详情页
+3. 页面返回违章列表页，该未读检查点标记为已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入该车辆违章列表页面，列表显示当前车辆违章信息
+2. 进入该违章详情页
+3. 页面返回违章列表页，该未读违章标记为已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“新增检查点”入口
+2. 点击任意检查点信息
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点列表页面，列表显示全部新增检查点
+2. 进入该检查点详情页
+3. 页面显示该检查点详细信息，并在map中标记检查点地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 首页显示butterfly loading动画
+2. 首页数据加载正常
+  a. 未读消息
+  b. 新增入口数量
+  c. 高发违章周排行入口
+  d. 已添加车辆信息
+3. 账户状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高发违章周排行HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高发违章点详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“高发违章周排行”入口
+2. 点击任意检查点信息
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页
+2. 查看“高发违章周排行”入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 首页处于刷新状态
+2. 刷新结束后，当排行存在变化时，入口显示红色提示icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapView/ListView切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页入口缩略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页入口展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页
+2. 点击“高发违章周排行”入口
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 首页处于刷新状态
+2. “高发违章周排行”入口呈现展开状态
+3. 展开区域显示Top3的违章点数据【排名、地址、类型、星级】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“新增检查点”入口
+2. 点击底部“地图”/“列表”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入新增检查点“地图”/“列表”页面，显示全部新增检查点
+2. 页面切换至“地图”/“列表”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“高发违章周排行”入口
+2. 点击底部“地图”/“列表”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“高发违章周排行”入口
+2. 点击右上角“查看范围”filter按钮
+3. 选择任意类型“附近”，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入高发违章周排行“地图”/“列表”页面，显示全部检查点
+2. 页面切换至“地图”/“列表”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入“高发违章周排行”列表页面，列表显示全部高发检查点数据
+2. 进入该检查点详情页
+3. 页面显示该检查点详细信息，并在map中标记检查点地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入“高发违章周排行”列表页面，列表显示全部高发检查点数据
+2. 弹出filter菜单
+3. 弹出butterfly loading动画，loading结束后，页面显示符合该类型的检查点数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息分享功能MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单，页面跳转至微信
+4. 可成功分享消息至朋友；
+消息存在pic时显示该pic预览；不存在pic时，显示默认微车图片；
+消息内容显示完整，无错字，显示不全等问题；
+用户点击该消息，跳转至指定url；
+跳转至url指定页面后，页面显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 点击消息盒子入口
+2. 点击任意消息
+3. 点击右上角分享按钮，选择“发送给朋友”
+4. 选择联系人后，点击分享，查看
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单，页面跳转至微信
+4. 可成功分享至朋友圈；
+消息存在pic时显示该pic预览；不存在pic是显示默认微车图片；
+用户点击该消息，跳转至指定url；
+消息内容显示完整，无错字，显示不全等问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 点击消息盒子入口
+2. 点击任意消息
+3. 点击右上角分享按钮，选择“发送到朋友圈”
+4. 点击分享，查看
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 点击消息盒子入口
+2. 点击任意消息
+3. 点击右上角分享按钮，选择“微博”
+4.点击分享，查看
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单，页面跳转至微博
+4. 可成功分享消息至新浪微博；
+消息存在pic时显示该pic预览，图片分辨率、尺寸显示适中；不存在pic时，不显示；
+消息内容显示完整，无错字，显示不全等问题；
+消息中显示url链接内容，点击后跳转至url指定页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单，页面跳转至微博
+4. 可成功分享消息至新浪微博；
+消息存在pic时显示该pic预览，图片分辨率、尺寸显示适中；不存在pic时，不显示；
+消息内容显示完整，无错字，显示不全等问题；
+消息中不显示url链接内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单，页面跳转至微信
+4. 可成功分享至朋友圈；
+消息存在pic时显示该pic预览；不存在pic是显示默认微车图片；
+消息内容显示完整，无错字，显示不全等问题；
+消息中不包含command url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入消息盒子页面
+2. 进入消息详情页
+3. 弹出分享选择菜单
+4. 可成功分享消息至朋友；
+消息存在pic时显示该pic预览；不存在pic时，显示默认微车图片；
+消息内容显示完整，无错字，显示不全等问题
+消息中不包含command url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用处于后台运行或未启动状态
+2. 后台推送Push消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功收取Push消息
+2. 如指定显示角标，则在桌面icon除显示该角标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push【IOS only】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车记录仪TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置-最大录制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置-录制质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置-音频录制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置-行车记录仪介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-选择车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-年检提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-查询地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-车牌号
+车牌前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-车牌号
+发动机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-车牌号
+车架号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑车辆-车牌号
+备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“添加车辆”入口
+2. 选择查询城市并输入必填车辆信息
+3. 点击“保存”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击任意已添加车辆区域的车型图片
+2. 修改车辆信息【车型图片、车辆信息】
+3. 点击“保存”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 进入应用首页，点击任意已添加车辆区域的车型图片
+2. 点击页面右上角“删除”按钮
+3. 点击“确定”按钮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“添加车辆”/“编辑车辆”页面
+2. 页面进入“选择车辆品牌”页面
+3. 页面进入“选择车辆型号”页面
+4. 页面返回“添加车辆”/“编辑车辆”页面；
+查看该车辆“选择车型”内容为刚刚选择的车型图片、信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“添加车辆”/“编辑车辆”页面
+2. 弹出datepicker控件
+3. datepicker控件隐藏；
+查看该车辆“年检提醒”内容为刚刚设置的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“添加车辆”入口/任意已添加车辆区域的车型图片
+2. 点击页面“选择车型”入口
+3. 点击任意车辆品牌入口
+4. 选择任意车型，点击“确定”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“添加车辆”入口/任意已添加车辆区域的车型图片
+2. 点击“年检提醒”入口
+3. 选择任意年月，点击“完成”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“添加车辆”入口/任意已添加车辆区域的车型图片
+2. 点击“查询地”入口
+3. 选择任意城市，如“北京”，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“添加车辆”/“编辑车辆”页面
+2. 页面进入“查询地”页面，显示全部城市信息
+3. 页面返回“添加车辆”/“编辑车辆”页面；
+查看该车辆“查询地”内容为刚刚选择的城市，“北京”；
+车牌前缀显示该城市对应的简称“京”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“添加车辆”入口/任意已添加车辆区域的车型图片
+2. 点击“发动机号”入口，输入正确发动机数据
+3. 点击“车架号”入口，输入正确车架号数据
+4. 点击“备注”入口，输入任意备注信息
+5. 点击“保存”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“添加车辆”/“编辑车辆”页面
+2. 弹出系统键盘，发动机号可成功输入
+3. 弹出系统键盘，车架号可成功输入
+4. 弹出系统键盘，备注可成功输入
+5. 保存后，页面返回违章列表页，具体测试用例请参考“车辆违章列表CVL”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 摄像头初始化中，显示绿色初始化图片，初始化完成后，显示行车记录仪首页；
+显示“返回”、“设置”、“REC”、“拍照”、“时间”、“文件”入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“REC”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件-预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“REC”按钮
+3. 使用任意物品划过手机光感设备，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 启动录制进程
+3. 屏幕呈现拍照效果【闪亮】，并播放默认拍照音效；
+照片保存至“文件”的图片分类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 启动录制进程，播放默认启动录制音效；
+“REC”按钮变为录制中状态；录制时间开始记录；
+除“返回”、“停止”按钮外，其余按钮均为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“拍照”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 屏幕呈现拍照效果【闪亮】，并播放默认拍照音效；
+照片保存至“文件”的图片分类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“文件”入口
+3. 点击“保存”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 页面进入“文件”页面
+3. 该文件被保存至系统相册中；应用弹出Toast提示“保存成功”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“文件”入口
+3. 点击“删除”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“文件”入口
+3. 点击“播放”按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 页面进入“文件”页面
+3. 如果浏览的文件是图片的话，则进入大图模式；
+如果浏览的文件是视频的话，则进入播放模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“文件”入口
+3. 点击“分享”按钮
+a. 选择“微博”
+b. 选择“微信朋友”
+c. 选择“微信朋友圈”
+4. 查看分享结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件-分享【picture\screenshot only】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 页面进入行车记录仪首页
+2. 页面进入“文件”页面
+3. 弹出分享选择菜单，显示“微博”、“微信朋友”、“微信朋友圈”
+a. 跳转至“微博”页面
+b. 跳转至“微信朋友”页面
+c. 跳转至“微信朋友圈”页面
+4. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“设置”入口
+3. 修改“最大录制时间”，如：“5分钟”
+4. 返回“行车记录仪”首页，录制查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“设置”入口
+3. 修改“录制质量”，如：“超清”
+4. 返回“行车记录仪”首页，录制查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 页面进入“设置”页面
+3. “最大录制时间”入口显示当前设置值“5分钟”
+4. 录制视频时，单个视频最长时长为5分钟；超过5分钟后自动停止保存，进行下一段视频的录制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 页面进入“设置”页面
+3. “录制质量”入口显示当前设置值“超清”
+4. 录制视频时，视频质量变高，单个文件Size也随之变大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“设置”入口
+3. 修改“音频录制”，如：“关闭”
+4. 返回“行车记录仪”首页，录制查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 页面进入行车记录仪首页
+2. 页面进入“设置”页面
+3. “录制质量”入口显示当前设置值“超清”
+4. 录制视频时，不对音频进行录制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页，点击“行车记录仪”入口
+2. 点击“设置”入口
+3. 点击“行车记录仪介绍”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 弹出“行车记录仪介绍”对话框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +1171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +1209,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -561,7 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +1302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,32 +1342,371 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1374,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1400,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -1413,42 +2422,42 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="14" t="s">
-        <v>72</v>
+      <c r="A2" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -1495,10 +2504,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1514,12 +2523,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1544,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -1557,80 +2664,80 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="13" t="s">
-        <v>76</v>
+      <c r="A2" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="49.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="49.5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -1671,18 +2778,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1700,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1718,130 +2825,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="C2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="99">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="82.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="82.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="66">
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="132" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="99" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="99" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1859,15 +3059,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
     <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
@@ -1887,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -1899,322 +3099,410 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="148.5">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
+    <row r="2" spans="1:7" ht="99">
+      <c r="A2" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="16"/>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="148.5">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:7" ht="49.5">
+      <c r="A4" s="16"/>
       <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>79</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="148.5">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:7" ht="49.5">
+      <c r="A5" s="16"/>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>89</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="82.5">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="16"/>
       <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="33">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="66">
-      <c r="A9" s="15"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="132">
+      <c r="A9" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="99">
-      <c r="A12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="115.5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="99">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="115.5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="66">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="66">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D11 D18:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="148.5">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="132">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="148.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="148.5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="66">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
       <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -2226,12 +3514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2239,7 +3527,418 @@
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
     <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66">
+      <c r="A2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="15"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="66">
+      <c r="A4" s="15"/>
+      <c r="B4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="15"/>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="66">
+      <c r="A7" s="15"/>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1 G8:G1048576">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66">
+      <c r="A2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="15"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="66">
+      <c r="A4" s="15"/>
+      <c r="B4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="66">
+      <c r="A5" s="15"/>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -2256,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -2268,75 +3967,541 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="2" spans="1:7" ht="132">
+      <c r="A2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="115.5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="115.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="115.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="115.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="115.5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G8:G9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1 G8:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576 G1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D8:D1048576 D1">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5">
+      <c r="A2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="15"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="66">
+      <c r="A4" s="15"/>
+      <c r="B4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="49.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="49.5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="115.5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="66">
+      <c r="A9" s="15"/>
+      <c r="B9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="82.5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="66">
+      <c r="A11" s="15"/>
+      <c r="B11" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" ht="66">
+      <c r="A12" s="15"/>
+      <c r="B12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>